--- a/Statystyki_2018/Template/oglr2.xlsx
+++ b/Statystyki_2018/Template/oglr2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-Klon-wap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E5B12A-82FE-48F6-947A-1F119609587D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6694BC-681C-4B39-B29F-F1522715EBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz2" sheetId="1" r:id="rId1"/>
@@ -307,20 +307,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,13 +638,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="59.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
@@ -839,52 +840,52 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AC4" s="3"/>
@@ -893,17 +894,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -920,6 +910,17 @@
     <mergeCell ref="AD2:AD4"/>
     <mergeCell ref="AE2:AE4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -936,18 +937,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -965,16 +967,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="3"/>
@@ -996,15 +998,14 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD8"/>
+      <selection activeCell="B5" sqref="B1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="48.77734375" customWidth="1"/>
+    <col min="2" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1062,28 +1063,28 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1166,33 +1167,33 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1226,83 +1227,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1323,7 +1324,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1386,52 +1388,52 @@
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1457,18 +1459,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1484,28 +1483,28 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
